--- a/Code/Results/Cases/Case_3_86/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_86/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9822986261107394</v>
+        <v>1.028535316525087</v>
       </c>
       <c r="D2">
-        <v>1.003495561618374</v>
+        <v>1.031602376488455</v>
       </c>
       <c r="E2">
-        <v>0.9904144137872812</v>
+        <v>1.02840618210332</v>
       </c>
       <c r="F2">
-        <v>0.9609631080402552</v>
+        <v>1.036441763206023</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.036070449319913</v>
+        <v>1.032628309558649</v>
       </c>
       <c r="J2">
-        <v>1.005021987509258</v>
+        <v>1.033687095665741</v>
       </c>
       <c r="K2">
-        <v>1.014906411586658</v>
+        <v>1.0344100198557</v>
       </c>
       <c r="L2">
-        <v>1.002008926364497</v>
+        <v>1.031223091868364</v>
       </c>
       <c r="M2">
-        <v>0.9729944777919427</v>
+        <v>1.039235494404243</v>
       </c>
       <c r="N2">
-        <v>1.006449234009155</v>
+        <v>1.035155049907163</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9901893005428467</v>
+        <v>1.03002376189744</v>
       </c>
       <c r="D3">
-        <v>1.009436012165969</v>
+        <v>1.032711804077479</v>
       </c>
       <c r="E3">
-        <v>0.9970128365160278</v>
+        <v>1.029691197379272</v>
       </c>
       <c r="F3">
-        <v>0.9743903068078891</v>
+        <v>1.038819834016068</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039149942760737</v>
+        <v>1.033066129558511</v>
       </c>
       <c r="J3">
-        <v>1.01095103570585</v>
+        <v>1.034813430928226</v>
       </c>
       <c r="K3">
-        <v>1.019949564505637</v>
+        <v>1.035327239432978</v>
       </c>
       <c r="L3">
-        <v>1.007684081884453</v>
+        <v>1.032314749258906</v>
       </c>
       <c r="M3">
-        <v>0.985361706102528</v>
+        <v>1.041419012674996</v>
       </c>
       <c r="N3">
-        <v>1.012386702134257</v>
+        <v>1.036282984694904</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9951174322876386</v>
+        <v>1.030984754399783</v>
       </c>
       <c r="D4">
-        <v>1.013144774292986</v>
+        <v>1.033427570199331</v>
       </c>
       <c r="E4">
-        <v>1.001139386696752</v>
+        <v>1.03052095537228</v>
       </c>
       <c r="F4">
-        <v>0.9826469099450185</v>
+        <v>1.040351132919755</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041046898473705</v>
+        <v>1.033346414036041</v>
       </c>
       <c r="J4">
-        <v>1.014646864679632</v>
+        <v>1.035539768421997</v>
       </c>
       <c r="K4">
-        <v>1.023087100449602</v>
+        <v>1.035918057762675</v>
       </c>
       <c r="L4">
-        <v>1.011224079749399</v>
+        <v>1.033018855438276</v>
       </c>
       <c r="M4">
-        <v>0.9929593839534655</v>
+        <v>1.042824143620784</v>
       </c>
       <c r="N4">
-        <v>1.0160877796091</v>
+        <v>1.037010353671228</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9971495642809556</v>
+        <v>1.031388255742771</v>
       </c>
       <c r="D5">
-        <v>1.01467372985436</v>
+        <v>1.033727980926248</v>
       </c>
       <c r="E5">
-        <v>1.002842204660899</v>
+        <v>1.030869378860774</v>
       </c>
       <c r="F5">
-        <v>0.9860244379663466</v>
+        <v>1.040993145082561</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041822993644128</v>
+        <v>1.033463529192469</v>
       </c>
       <c r="J5">
-        <v>1.01616912500093</v>
+        <v>1.035844535765198</v>
       </c>
       <c r="K5">
-        <v>1.024377981461305</v>
+        <v>1.036165802107071</v>
       </c>
       <c r="L5">
-        <v>1.012682704996119</v>
+        <v>1.033314325954948</v>
       </c>
       <c r="M5">
-        <v>0.9960655965727611</v>
+        <v>1.043413045166071</v>
       </c>
       <c r="N5">
-        <v>1.01761220171466</v>
+        <v>1.037315553819014</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.99748852046491</v>
+        <v>1.031455976376547</v>
       </c>
       <c r="D6">
-        <v>1.014928734300079</v>
+        <v>1.033778392252951</v>
       </c>
       <c r="E6">
-        <v>1.003126300928285</v>
+        <v>1.030927857077164</v>
       </c>
       <c r="F6">
-        <v>0.9865863110049263</v>
+        <v>1.041100840603253</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041952089969868</v>
+        <v>1.033483151479928</v>
       </c>
       <c r="J6">
-        <v>1.016422933488617</v>
+        <v>1.035895673472698</v>
       </c>
       <c r="K6">
-        <v>1.024593128612629</v>
+        <v>1.036207362394532</v>
       </c>
       <c r="L6">
-        <v>1.012925934969024</v>
+        <v>1.033363905556787</v>
       </c>
       <c r="M6">
-        <v>0.9965822289530181</v>
+        <v>1.043511819020616</v>
       </c>
       <c r="N6">
-        <v>1.01786637063951</v>
+        <v>1.037366764147924</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9951447379877589</v>
+        <v>1.030990147954533</v>
       </c>
       <c r="D7">
-        <v>1.013165320329888</v>
+        <v>1.033431586246373</v>
       </c>
       <c r="E7">
-        <v>1.001162262700644</v>
+        <v>1.030525612611129</v>
       </c>
       <c r="F7">
-        <v>0.9826923963945906</v>
+        <v>1.04035971832049</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041057350859959</v>
+        <v>1.033347981742479</v>
       </c>
       <c r="J7">
-        <v>1.014667326107513</v>
+        <v>1.035543843025501</v>
       </c>
       <c r="K7">
-        <v>1.023104457415613</v>
+        <v>1.035921370622992</v>
       </c>
       <c r="L7">
-        <v>1.011243683690391</v>
+        <v>1.033022805624384</v>
       </c>
       <c r="M7">
-        <v>0.9930012235946261</v>
+        <v>1.042832019631965</v>
       </c>
       <c r="N7">
-        <v>1.016108270094555</v>
+        <v>1.037014434061136</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9850039446172901</v>
+        <v>1.02903879111589</v>
       </c>
       <c r="D8">
-        <v>1.00553250993035</v>
+        <v>1.031977753537116</v>
       </c>
       <c r="E8">
-        <v>0.9926754566336999</v>
+        <v>1.028840822704963</v>
       </c>
       <c r="F8">
-        <v>0.9655966944195012</v>
+        <v>1.037247016497547</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037131973504424</v>
+        <v>1.032776900169578</v>
       </c>
       <c r="J8">
-        <v>1.007056277584007</v>
+        <v>1.03406826360571</v>
       </c>
       <c r="K8">
-        <v>1.01663805776504</v>
+        <v>1.034720558433272</v>
       </c>
       <c r="L8">
-        <v>1.003955566204721</v>
+        <v>1.031592496986029</v>
       </c>
       <c r="M8">
-        <v>0.9772637668389144</v>
+        <v>1.039975053977641</v>
       </c>
       <c r="N8">
-        <v>1.008486413009146</v>
+        <v>1.035536759149317</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.965623513212153</v>
+        <v>1.02558346333761</v>
       </c>
       <c r="D9">
-        <v>0.990935420060495</v>
+        <v>1.029399443955228</v>
       </c>
       <c r="E9">
-        <v>0.9765063676428616</v>
+        <v>1.025858371611212</v>
       </c>
       <c r="F9">
-        <v>0.9316202941762795</v>
+        <v>1.031702864424283</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.029400476097415</v>
+        <v>1.031747258996574</v>
       </c>
       <c r="J9">
-        <v>0.9924514567312044</v>
+        <v>1.031448773559039</v>
       </c>
       <c r="K9">
-        <v>1.004177295940152</v>
+        <v>1.032583705013107</v>
       </c>
       <c r="L9">
-        <v>0.9899924713937616</v>
+        <v>1.029054391526712</v>
       </c>
       <c r="M9">
-        <v>0.9459296000700518</v>
+        <v>1.034879524026838</v>
       </c>
       <c r="N9">
-        <v>0.9938608516355361</v>
+        <v>1.03291354912632</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9514333106027364</v>
+        <v>1.023267968470128</v>
       </c>
       <c r="D10">
-        <v>0.9802412425432471</v>
+        <v>1.027669032808473</v>
       </c>
       <c r="E10">
-        <v>0.9647102717685533</v>
+        <v>1.023860388001257</v>
       </c>
       <c r="F10">
-        <v>0.905378297980435</v>
+        <v>1.027964225437221</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.023555395891134</v>
+        <v>1.031044815980535</v>
       </c>
       <c r="J10">
-        <v>0.9817157515491359</v>
+        <v>1.029688939233127</v>
       </c>
       <c r="K10">
-        <v>0.9949766530030922</v>
+        <v>1.031144663425244</v>
       </c>
       <c r="L10">
-        <v>0.9797473296991115</v>
+        <v>1.027349928172122</v>
       </c>
       <c r="M10">
-        <v>0.9216955214741526</v>
+        <v>1.0314387827356</v>
       </c>
       <c r="N10">
-        <v>0.9831099005207065</v>
+        <v>1.031151215633811</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9449130747882315</v>
+        <v>1.022262353437898</v>
       </c>
       <c r="D11">
-        <v>0.9753251369667933</v>
+        <v>1.026916904067228</v>
       </c>
       <c r="E11">
-        <v>0.9593023858453603</v>
+        <v>1.022992826410458</v>
       </c>
       <c r="F11">
-        <v>0.8928333201828104</v>
+        <v>1.026334643107049</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.020816228465872</v>
+        <v>1.030736775859835</v>
       </c>
       <c r="J11">
-        <v>0.9767717320574918</v>
+        <v>1.028923592548137</v>
       </c>
       <c r="K11">
-        <v>0.9907278856057224</v>
+        <v>1.030518010045564</v>
       </c>
       <c r="L11">
-        <v>0.9750348956709148</v>
+        <v>1.026608829121612</v>
       </c>
       <c r="M11">
-        <v>0.9101050387630913</v>
+        <v>1.029937951510898</v>
       </c>
       <c r="N11">
-        <v>0.9781588599542971</v>
+        <v>1.030384782068741</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9424264480116711</v>
+        <v>1.021888361116577</v>
       </c>
       <c r="D12">
-        <v>0.9734497653481254</v>
+        <v>1.026637092704146</v>
       </c>
       <c r="E12">
-        <v>0.9572420190140607</v>
+        <v>1.022670201484266</v>
       </c>
       <c r="F12">
-        <v>0.8879553797255425</v>
+        <v>1.025727678046926</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.019762322823812</v>
+        <v>1.030621766808194</v>
       </c>
       <c r="J12">
-        <v>0.9748843875608849</v>
+        <v>1.028638798837636</v>
       </c>
       <c r="K12">
-        <v>0.9891039375555333</v>
+        <v>1.03028470266675</v>
       </c>
       <c r="L12">
-        <v>0.9732369493550727</v>
+        <v>1.026333083489104</v>
       </c>
       <c r="M12">
-        <v>0.9055977408440825</v>
+        <v>1.029378777565773</v>
       </c>
       <c r="N12">
-        <v>0.9762688352120236</v>
+        <v>1.030099583918505</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9429629226364868</v>
+        <v>1.021968604858996</v>
       </c>
       <c r="D13">
-        <v>0.9738543928092369</v>
+        <v>1.026697133127267</v>
       </c>
       <c r="E13">
-        <v>0.9576864353042268</v>
+        <v>1.022739422710852</v>
       </c>
       <c r="F13">
-        <v>0.889012400237796</v>
+        <v>1.025857950364224</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.019990139629693</v>
+        <v>1.030646463412505</v>
       </c>
       <c r="J13">
-        <v>0.9752916575712802</v>
+        <v>1.028699911291197</v>
       </c>
       <c r="K13">
-        <v>0.9894544652045196</v>
+        <v>1.030334772487919</v>
       </c>
       <c r="L13">
-        <v>0.9736248806965603</v>
+        <v>1.026392253214543</v>
       </c>
       <c r="M13">
-        <v>0.9065744615930315</v>
+        <v>1.029498799955264</v>
       </c>
       <c r="N13">
-        <v>0.9766766835925483</v>
+        <v>1.030160783158759</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9447089050873564</v>
+        <v>1.022231448617995</v>
       </c>
       <c r="D14">
-        <v>0.9751711675155477</v>
+        <v>1.026893783746284</v>
       </c>
       <c r="E14">
-        <v>0.9591331726328196</v>
+        <v>1.02296616582037</v>
       </c>
       <c r="F14">
-        <v>0.8924348458492763</v>
+        <v>1.026284505480467</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.020729891656526</v>
+        <v>1.030727281234934</v>
       </c>
       <c r="J14">
-        <v>0.9766168062779773</v>
+        <v>1.028900061871176</v>
       </c>
       <c r="K14">
-        <v>0.990594623679992</v>
+        <v>1.030498735860105</v>
       </c>
       <c r="L14">
-        <v>0.9748872872697975</v>
+        <v>1.026586045512894</v>
       </c>
       <c r="M14">
-        <v>0.9097368497349382</v>
+        <v>1.029891764961762</v>
       </c>
       <c r="N14">
-        <v>0.9780037141624054</v>
+        <v>1.03036121797552</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9457758035238804</v>
+        <v>1.02239333371008</v>
       </c>
       <c r="D15">
-        <v>0.9759757200119661</v>
+        <v>1.027014888464536</v>
       </c>
       <c r="E15">
-        <v>0.9600174882161441</v>
+        <v>1.023105819880058</v>
       </c>
       <c r="F15">
-        <v>0.8945131576953007</v>
+        <v>1.026547097819637</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.021180664718509</v>
+        <v>1.030776997481943</v>
       </c>
       <c r="J15">
-        <v>0.9774263024232919</v>
+        <v>1.029023313382591</v>
       </c>
       <c r="K15">
-        <v>0.9912908417062609</v>
+        <v>1.030599687231732</v>
       </c>
       <c r="L15">
-        <v>0.9756585908033885</v>
+        <v>1.026705384985268</v>
       </c>
       <c r="M15">
-        <v>0.9116571853685081</v>
+        <v>1.030133657084022</v>
       </c>
       <c r="N15">
-        <v>0.9788143598850966</v>
+        <v>1.030484644518218</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9518574598217817</v>
+        <v>1.023334643730026</v>
       </c>
       <c r="D16">
-        <v>0.9805609830618495</v>
+        <v>1.027718888303726</v>
       </c>
       <c r="E16">
-        <v>0.9650623298656233</v>
+        <v>1.023917913327859</v>
       </c>
       <c r="F16">
-        <v>0.9061828063142168</v>
+        <v>1.028072144857946</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.023732390820811</v>
+        <v>1.031065177325174</v>
       </c>
       <c r="J16">
-        <v>0.9820371256828947</v>
+        <v>1.029739661824588</v>
       </c>
       <c r="K16">
-        <v>0.9952525750289397</v>
+        <v>1.03118617704356</v>
       </c>
       <c r="L16">
-        <v>0.9800537773680494</v>
+        <v>1.027399047303376</v>
       </c>
       <c r="M16">
-        <v>0.9224387324046096</v>
+        <v>1.03153815258673</v>
       </c>
       <c r="N16">
-        <v>0.9834317310425971</v>
+        <v>1.031202010257168</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9555664814541438</v>
+        <v>1.023924292990033</v>
       </c>
       <c r="D17">
-        <v>0.9833567321211961</v>
+        <v>1.028159719525011</v>
       </c>
       <c r="E17">
-        <v>0.9681423387033946</v>
+        <v>1.024426662685754</v>
       </c>
       <c r="F17">
-        <v>0.9131618015240363</v>
+        <v>1.029025856856624</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.025274071344062</v>
+        <v>1.031244902102438</v>
       </c>
       <c r="J17">
-        <v>0.9848461686351173</v>
+        <v>1.030188110538083</v>
       </c>
       <c r="K17">
-        <v>0.9976630098005093</v>
+        <v>1.031553113024406</v>
       </c>
       <c r="L17">
-        <v>0.9827329978381349</v>
+        <v>1.027833338767291</v>
       </c>
       <c r="M17">
-        <v>0.9288854167233751</v>
+        <v>1.032416183740772</v>
       </c>
       <c r="N17">
-        <v>0.9862447631580137</v>
+        <v>1.031651095819274</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.95769428130639</v>
+        <v>1.024267937766</v>
       </c>
       <c r="D18">
-        <v>0.9849604100931058</v>
+        <v>1.028416574630625</v>
       </c>
       <c r="E18">
-        <v>0.9699104149633654</v>
+        <v>1.024723174630017</v>
       </c>
       <c r="F18">
-        <v>0.9171218058378011</v>
+        <v>1.029581109633541</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.026153633236537</v>
+        <v>1.031349358842659</v>
       </c>
       <c r="J18">
-        <v>0.9864566500700661</v>
+        <v>1.0304493627839</v>
       </c>
       <c r="K18">
-        <v>0.9990438964692525</v>
+        <v>1.031766799721117</v>
       </c>
       <c r="L18">
-        <v>0.9842695657037408</v>
+        <v>1.028086359495849</v>
       </c>
       <c r="M18">
-        <v>0.932542865972579</v>
+        <v>1.032927269720299</v>
       </c>
       <c r="N18">
-        <v>0.9878575316613244</v>
+        <v>1.031912719073246</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9584139855105711</v>
+        <v>1.024385063347409</v>
       </c>
       <c r="D19">
-        <v>0.9855028063928352</v>
+        <v>1.028504109335565</v>
       </c>
       <c r="E19">
-        <v>0.9705086328971327</v>
+        <v>1.024824238332186</v>
       </c>
       <c r="F19">
-        <v>0.9184543045783903</v>
+        <v>1.029770263174806</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.026450337751964</v>
+        <v>1.031384912708434</v>
       </c>
       <c r="J19">
-        <v>0.9870012083914984</v>
+        <v>1.030538389021668</v>
       </c>
       <c r="K19">
-        <v>0.9995106463858432</v>
+        <v>1.031839603810095</v>
       </c>
       <c r="L19">
-        <v>0.9847892154719178</v>
+        <v>1.028172583418856</v>
       </c>
       <c r="M19">
-        <v>0.933773463981578</v>
+        <v>1.033101359448134</v>
       </c>
       <c r="N19">
-        <v>0.988402863318035</v>
+        <v>1.032001871738484</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9551722751634559</v>
+        <v>1.023861059051642</v>
       </c>
       <c r="D20">
-        <v>0.983059612255758</v>
+        <v>1.028112450944052</v>
       </c>
       <c r="E20">
-        <v>0.9678148668947845</v>
+        <v>1.024372102862453</v>
       </c>
       <c r="F20">
-        <v>0.9124247243815617</v>
+        <v>1.028923639644532</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.025110731259231</v>
+        <v>1.031225658034319</v>
       </c>
       <c r="J20">
-        <v>0.9845477216144249</v>
+        <v>1.03014002943808</v>
       </c>
       <c r="K20">
-        <v>0.9974070252663555</v>
+        <v>1.031513779585315</v>
       </c>
       <c r="L20">
-        <v>0.9824482892117476</v>
+        <v>1.027786773895192</v>
       </c>
       <c r="M20">
-        <v>0.928204610641583</v>
+        <v>1.032322088767561</v>
       </c>
       <c r="N20">
-        <v>0.9859458923083196</v>
+        <v>1.031602946438595</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9441966203593186</v>
+        <v>1.022154060542977</v>
       </c>
       <c r="D21">
-        <v>0.974784831787142</v>
+        <v>1.026835887185353</v>
       </c>
       <c r="E21">
-        <v>0.9587086311259058</v>
+        <v>1.022899406030102</v>
       </c>
       <c r="F21">
-        <v>0.8914334427639661</v>
+        <v>1.026158942048845</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.020513109083326</v>
+        <v>1.030703498720418</v>
       </c>
       <c r="J21">
-        <v>0.9762280497722693</v>
+        <v>1.028841136670517</v>
       </c>
       <c r="K21">
-        <v>0.9902601951261685</v>
+        <v>1.030450467722503</v>
       </c>
       <c r="L21">
-        <v>0.9745169087906111</v>
+        <v>1.026528991519102</v>
       </c>
       <c r="M21">
-        <v>0.9088115497154091</v>
+        <v>1.029776093857751</v>
       </c>
       <c r="N21">
-        <v>0.9776144055778685</v>
+        <v>1.030302209094317</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9369155062228152</v>
+        <v>1.021078122645745</v>
       </c>
       <c r="D22">
-        <v>0.9692922221231495</v>
+        <v>1.026030726379311</v>
       </c>
       <c r="E22">
-        <v>0.9526797791150858</v>
+        <v>1.021971294563415</v>
       </c>
       <c r="F22">
-        <v>0.8769407003662261</v>
+        <v>1.024411002604803</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.017407578744834</v>
+        <v>1.030371783915347</v>
       </c>
       <c r="J22">
-        <v>0.9706978854561019</v>
+        <v>1.028021516171027</v>
       </c>
       <c r="K22">
-        <v>0.9854975782605041</v>
+        <v>1.029778790270916</v>
       </c>
       <c r="L22">
-        <v>0.969250788111339</v>
+        <v>1.025735458752042</v>
       </c>
       <c r="M22">
-        <v>0.8954195225412873</v>
+        <v>1.028165473541917</v>
       </c>
       <c r="N22">
-        <v>0.9720763877940534</v>
+        <v>1.029481424639706</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9408147719643052</v>
+        <v>1.021648756062354</v>
       </c>
       <c r="D23">
-        <v>0.9722340870540954</v>
+        <v>1.02645780070146</v>
       </c>
       <c r="E23">
-        <v>0.9559072197079842</v>
+        <v>1.022463512976673</v>
       </c>
       <c r="F23">
-        <v>0.8847640915634003</v>
+        <v>1.02533855275921</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.01907643075385</v>
+        <v>1.030547957931946</v>
       </c>
       <c r="J23">
-        <v>0.9736605779560642</v>
+        <v>1.028456296006474</v>
       </c>
       <c r="K23">
-        <v>0.9880503121639224</v>
+        <v>1.030135158937826</v>
       </c>
       <c r="L23">
-        <v>0.9720714096808261</v>
+        <v>1.026156386028954</v>
       </c>
       <c r="M23">
-        <v>0.9026488461139266</v>
+        <v>1.029020244901756</v>
       </c>
       <c r="N23">
-        <v>0.9750432876571911</v>
+        <v>1.02991682191239</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9553505094615091</v>
+        <v>1.023889632635355</v>
       </c>
       <c r="D24">
-        <v>0.9831939510148019</v>
+        <v>1.028133810428698</v>
       </c>
       <c r="E24">
-        <v>0.9679629247239877</v>
+        <v>1.024396756817944</v>
       </c>
       <c r="F24">
-        <v>0.9127581170957627</v>
+        <v>1.028969830387016</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.025184598039285</v>
+        <v>1.031234354754882</v>
       </c>
       <c r="J24">
-        <v>0.9846826629867157</v>
+        <v>1.030161756207247</v>
       </c>
       <c r="K24">
-        <v>0.9975227707276326</v>
+        <v>1.031531553726547</v>
       </c>
       <c r="L24">
-        <v>0.9825770172384334</v>
+        <v>1.027807815465398</v>
       </c>
       <c r="M24">
-        <v>0.9285125526066824</v>
+        <v>1.032364609492501</v>
       </c>
       <c r="N24">
-        <v>0.9860810253128369</v>
+        <v>1.031624704062266</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.970836293076195</v>
+        <v>1.026478804851145</v>
       </c>
       <c r="D25">
-        <v>0.9948626094765264</v>
+        <v>1.030067997998146</v>
       </c>
       <c r="E25">
-        <v>0.9808488091320574</v>
+        <v>1.026631075234737</v>
       </c>
       <c r="F25">
-        <v>0.9409484186061546</v>
+        <v>1.033143453252651</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.031508686153433</v>
+        <v>1.03201624386582</v>
       </c>
       <c r="J25">
-        <v>0.9963866339505649</v>
+        <v>1.032128317462427</v>
       </c>
       <c r="K25">
-        <v>1.007541203784031</v>
+        <v>1.033138650971642</v>
       </c>
       <c r="L25">
-        <v>0.9937518806324673</v>
+        <v>1.029712701420169</v>
       </c>
       <c r="M25">
-        <v>0.9545382634450137</v>
+        <v>1.036204354778863</v>
       </c>
       <c r="N25">
-        <v>0.9978016172579192</v>
+        <v>1.033594058059996</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_86/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_86/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.028535316525087</v>
+        <v>0.9822986261107409</v>
       </c>
       <c r="D2">
-        <v>1.031602376488455</v>
+        <v>1.003495561618376</v>
       </c>
       <c r="E2">
-        <v>1.02840618210332</v>
+        <v>0.9904144137872825</v>
       </c>
       <c r="F2">
-        <v>1.036441763206023</v>
+        <v>0.9609631080402566</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.032628309558649</v>
+        <v>1.036070449319914</v>
       </c>
       <c r="J2">
-        <v>1.033687095665741</v>
+        <v>1.00502198750926</v>
       </c>
       <c r="K2">
-        <v>1.0344100198557</v>
+        <v>1.01490641158666</v>
       </c>
       <c r="L2">
-        <v>1.031223091868364</v>
+        <v>1.002008926364499</v>
       </c>
       <c r="M2">
-        <v>1.039235494404243</v>
+        <v>0.9729944777919441</v>
       </c>
       <c r="N2">
-        <v>1.035155049907163</v>
+        <v>1.006449234009156</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.03002376189744</v>
+        <v>0.990189300542849</v>
       </c>
       <c r="D3">
-        <v>1.032711804077479</v>
+        <v>1.009436012165971</v>
       </c>
       <c r="E3">
-        <v>1.029691197379272</v>
+        <v>0.9970128365160295</v>
       </c>
       <c r="F3">
-        <v>1.038819834016068</v>
+        <v>0.9743903068078904</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.033066129558511</v>
+        <v>1.039149942760738</v>
       </c>
       <c r="J3">
-        <v>1.034813430928226</v>
+        <v>1.010951035705852</v>
       </c>
       <c r="K3">
-        <v>1.035327239432978</v>
+        <v>1.019949564505639</v>
       </c>
       <c r="L3">
-        <v>1.032314749258906</v>
+        <v>1.007684081884455</v>
       </c>
       <c r="M3">
-        <v>1.041419012674996</v>
+        <v>0.9853617061025293</v>
       </c>
       <c r="N3">
-        <v>1.036282984694904</v>
+        <v>1.012386702134259</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.030984754399783</v>
+        <v>0.9951174322876389</v>
       </c>
       <c r="D4">
-        <v>1.033427570199331</v>
+        <v>1.013144774292986</v>
       </c>
       <c r="E4">
-        <v>1.03052095537228</v>
+        <v>1.001139386696752</v>
       </c>
       <c r="F4">
-        <v>1.040351132919755</v>
+        <v>0.9826469099450178</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.033346414036041</v>
+        <v>1.041046898473705</v>
       </c>
       <c r="J4">
-        <v>1.035539768421997</v>
+        <v>1.014646864679633</v>
       </c>
       <c r="K4">
-        <v>1.035918057762675</v>
+        <v>1.023087100449603</v>
       </c>
       <c r="L4">
-        <v>1.033018855438276</v>
+        <v>1.011224079749399</v>
       </c>
       <c r="M4">
-        <v>1.042824143620784</v>
+        <v>0.9929593839534649</v>
       </c>
       <c r="N4">
-        <v>1.037010353671228</v>
+        <v>1.0160877796091</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.031388255742771</v>
+        <v>0.9971495642809569</v>
       </c>
       <c r="D5">
-        <v>1.033727980926248</v>
+        <v>1.014673729854361</v>
       </c>
       <c r="E5">
-        <v>1.030869378860774</v>
+        <v>1.0028422046609</v>
       </c>
       <c r="F5">
-        <v>1.040993145082561</v>
+        <v>0.9860244379663479</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.033463529192469</v>
+        <v>1.041822993644128</v>
       </c>
       <c r="J5">
-        <v>1.035844535765198</v>
+        <v>1.016169125000932</v>
       </c>
       <c r="K5">
-        <v>1.036165802107071</v>
+        <v>1.024377981461305</v>
       </c>
       <c r="L5">
-        <v>1.033314325954948</v>
+        <v>1.01268270499612</v>
       </c>
       <c r="M5">
-        <v>1.043413045166071</v>
+        <v>0.9960655965727622</v>
       </c>
       <c r="N5">
-        <v>1.037315553819014</v>
+        <v>1.017612201714661</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.031455976376547</v>
+        <v>0.9974885204649105</v>
       </c>
       <c r="D6">
-        <v>1.033778392252951</v>
+        <v>1.014928734300079</v>
       </c>
       <c r="E6">
-        <v>1.030927857077164</v>
+        <v>1.003126300928285</v>
       </c>
       <c r="F6">
-        <v>1.041100840603253</v>
+        <v>0.9865863110049264</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.033483151479928</v>
+        <v>1.041952089969868</v>
       </c>
       <c r="J6">
-        <v>1.035895673472698</v>
+        <v>1.016422933488617</v>
       </c>
       <c r="K6">
-        <v>1.036207362394532</v>
+        <v>1.02459312861263</v>
       </c>
       <c r="L6">
-        <v>1.033363905556787</v>
+        <v>1.012925934969025</v>
       </c>
       <c r="M6">
-        <v>1.043511819020616</v>
+        <v>0.9965822289530183</v>
       </c>
       <c r="N6">
-        <v>1.037366764147924</v>
+        <v>1.017866370639511</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.030990147954533</v>
+        <v>0.9951447379877588</v>
       </c>
       <c r="D7">
-        <v>1.033431586246373</v>
+        <v>1.013165320329888</v>
       </c>
       <c r="E7">
-        <v>1.030525612611129</v>
+        <v>1.001162262700644</v>
       </c>
       <c r="F7">
-        <v>1.04035971832049</v>
+        <v>0.9826923963945904</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.033347981742479</v>
+        <v>1.041057350859959</v>
       </c>
       <c r="J7">
-        <v>1.035543843025501</v>
+        <v>1.014667326107513</v>
       </c>
       <c r="K7">
-        <v>1.035921370622992</v>
+        <v>1.023104457415612</v>
       </c>
       <c r="L7">
-        <v>1.033022805624384</v>
+        <v>1.01124368369039</v>
       </c>
       <c r="M7">
-        <v>1.042832019631965</v>
+        <v>0.9930012235946259</v>
       </c>
       <c r="N7">
-        <v>1.037014434061136</v>
+        <v>1.016108270094554</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.02903879111589</v>
+        <v>0.9850039446172923</v>
       </c>
       <c r="D8">
-        <v>1.031977753537116</v>
+        <v>1.005532509930353</v>
       </c>
       <c r="E8">
-        <v>1.028840822704963</v>
+        <v>0.9926754566337019</v>
       </c>
       <c r="F8">
-        <v>1.037247016497547</v>
+        <v>0.9655966944195025</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.032776900169578</v>
+        <v>1.037131973504424</v>
       </c>
       <c r="J8">
-        <v>1.03406826360571</v>
+        <v>1.007056277584009</v>
       </c>
       <c r="K8">
-        <v>1.034720558433272</v>
+        <v>1.016638057765042</v>
       </c>
       <c r="L8">
-        <v>1.031592496986029</v>
+        <v>1.003955566204723</v>
       </c>
       <c r="M8">
-        <v>1.039975053977641</v>
+        <v>0.9772637668389152</v>
       </c>
       <c r="N8">
-        <v>1.035536759149317</v>
+        <v>1.008486413009148</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.02558346333761</v>
+        <v>0.9656235132121528</v>
       </c>
       <c r="D9">
-        <v>1.029399443955228</v>
+        <v>0.990935420060495</v>
       </c>
       <c r="E9">
-        <v>1.025858371611212</v>
+        <v>0.9765063676428614</v>
       </c>
       <c r="F9">
-        <v>1.031702864424283</v>
+        <v>0.9316202941762795</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031747258996574</v>
+        <v>1.029400476097415</v>
       </c>
       <c r="J9">
-        <v>1.031448773559039</v>
+        <v>0.9924514567312042</v>
       </c>
       <c r="K9">
-        <v>1.032583705013107</v>
+        <v>1.004177295940152</v>
       </c>
       <c r="L9">
-        <v>1.029054391526712</v>
+        <v>0.9899924713937611</v>
       </c>
       <c r="M9">
-        <v>1.034879524026838</v>
+        <v>0.9459296000700518</v>
       </c>
       <c r="N9">
-        <v>1.03291354912632</v>
+        <v>0.9938608516355358</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.023267968470128</v>
+        <v>0.9514333106027366</v>
       </c>
       <c r="D10">
-        <v>1.027669032808473</v>
+        <v>0.9802412425432473</v>
       </c>
       <c r="E10">
-        <v>1.023860388001257</v>
+        <v>0.9647102717685534</v>
       </c>
       <c r="F10">
-        <v>1.027964225437221</v>
+        <v>0.9053782979804365</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031044815980535</v>
+        <v>1.023555395891134</v>
       </c>
       <c r="J10">
-        <v>1.029688939233127</v>
+        <v>0.9817157515491362</v>
       </c>
       <c r="K10">
-        <v>1.031144663425244</v>
+        <v>0.9949766530030923</v>
       </c>
       <c r="L10">
-        <v>1.027349928172122</v>
+        <v>0.9797473296991115</v>
       </c>
       <c r="M10">
-        <v>1.0314387827356</v>
+        <v>0.9216955214741539</v>
       </c>
       <c r="N10">
-        <v>1.031151215633811</v>
+        <v>0.9831099005207063</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.022262353437898</v>
+        <v>0.9449130747882294</v>
       </c>
       <c r="D11">
-        <v>1.026916904067228</v>
+        <v>0.9753251369667917</v>
       </c>
       <c r="E11">
-        <v>1.022992826410458</v>
+        <v>0.9593023858453583</v>
       </c>
       <c r="F11">
-        <v>1.026334643107049</v>
+        <v>0.8928333201828085</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030736775859835</v>
+        <v>1.020816228465871</v>
       </c>
       <c r="J11">
-        <v>1.028923592548137</v>
+        <v>0.9767717320574898</v>
       </c>
       <c r="K11">
-        <v>1.030518010045564</v>
+        <v>0.9907278856057209</v>
       </c>
       <c r="L11">
-        <v>1.026608829121612</v>
+        <v>0.9750348956709129</v>
       </c>
       <c r="M11">
-        <v>1.029937951510898</v>
+        <v>0.9101050387630895</v>
       </c>
       <c r="N11">
-        <v>1.030384782068741</v>
+        <v>0.978158859954295</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.021888361116577</v>
+        <v>0.942426448011671</v>
       </c>
       <c r="D12">
-        <v>1.026637092704146</v>
+        <v>0.9734497653481257</v>
       </c>
       <c r="E12">
-        <v>1.022670201484266</v>
+        <v>0.9572420190140604</v>
       </c>
       <c r="F12">
-        <v>1.025727678046926</v>
+        <v>0.8879553797255426</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030621766808194</v>
+        <v>1.019762322823812</v>
       </c>
       <c r="J12">
-        <v>1.028638798837636</v>
+        <v>0.9748843875608848</v>
       </c>
       <c r="K12">
-        <v>1.03028470266675</v>
+        <v>0.9891039375555334</v>
       </c>
       <c r="L12">
-        <v>1.026333083489104</v>
+        <v>0.9732369493550723</v>
       </c>
       <c r="M12">
-        <v>1.029378777565773</v>
+        <v>0.9055977408440827</v>
       </c>
       <c r="N12">
-        <v>1.030099583918505</v>
+        <v>0.9762688352120233</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.021968604858996</v>
+        <v>0.9429629226364876</v>
       </c>
       <c r="D13">
-        <v>1.026697133127267</v>
+        <v>0.9738543928092375</v>
       </c>
       <c r="E13">
-        <v>1.022739422710852</v>
+        <v>0.9576864353042274</v>
       </c>
       <c r="F13">
-        <v>1.025857950364224</v>
+        <v>0.8890124002377975</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030646463412505</v>
+        <v>1.019990139629693</v>
       </c>
       <c r="J13">
-        <v>1.028699911291197</v>
+        <v>0.9752916575712809</v>
       </c>
       <c r="K13">
-        <v>1.030334772487919</v>
+        <v>0.9894544652045203</v>
       </c>
       <c r="L13">
-        <v>1.026392253214543</v>
+        <v>0.9736248806965607</v>
       </c>
       <c r="M13">
-        <v>1.029498799955264</v>
+        <v>0.9065744615930327</v>
       </c>
       <c r="N13">
-        <v>1.030160783158759</v>
+        <v>0.9766766835925489</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.022231448617995</v>
+        <v>0.9447089050873567</v>
       </c>
       <c r="D14">
-        <v>1.026893783746284</v>
+        <v>0.9751711675155473</v>
       </c>
       <c r="E14">
-        <v>1.02296616582037</v>
+        <v>0.9591331726328199</v>
       </c>
       <c r="F14">
-        <v>1.026284505480467</v>
+        <v>0.892434845849276</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030727281234934</v>
+        <v>1.020729891656526</v>
       </c>
       <c r="J14">
-        <v>1.028900061871176</v>
+        <v>0.9766168062779775</v>
       </c>
       <c r="K14">
-        <v>1.030498735860105</v>
+        <v>0.990594623679992</v>
       </c>
       <c r="L14">
-        <v>1.026586045512894</v>
+        <v>0.9748872872697978</v>
       </c>
       <c r="M14">
-        <v>1.029891764961762</v>
+        <v>0.9097368497349378</v>
       </c>
       <c r="N14">
-        <v>1.03036121797552</v>
+        <v>0.9780037141624056</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.02239333371008</v>
+        <v>0.9457758035238769</v>
       </c>
       <c r="D15">
-        <v>1.027014888464536</v>
+        <v>0.9759757200119633</v>
       </c>
       <c r="E15">
-        <v>1.023105819880058</v>
+        <v>0.9600174882161407</v>
       </c>
       <c r="F15">
-        <v>1.026547097819637</v>
+        <v>0.8945131576952977</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030776997481943</v>
+        <v>1.021180664718507</v>
       </c>
       <c r="J15">
-        <v>1.029023313382591</v>
+        <v>0.9774263024232885</v>
       </c>
       <c r="K15">
-        <v>1.030599687231732</v>
+        <v>0.9912908417062581</v>
       </c>
       <c r="L15">
-        <v>1.026705384985268</v>
+        <v>0.9756585908033851</v>
       </c>
       <c r="M15">
-        <v>1.030133657084022</v>
+        <v>0.9116571853685052</v>
       </c>
       <c r="N15">
-        <v>1.030484644518218</v>
+        <v>0.9788143598850938</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.023334643730026</v>
+        <v>0.9518574598217818</v>
       </c>
       <c r="D16">
-        <v>1.027718888303726</v>
+        <v>0.9805609830618495</v>
       </c>
       <c r="E16">
-        <v>1.023917913327859</v>
+        <v>0.9650623298656232</v>
       </c>
       <c r="F16">
-        <v>1.028072144857946</v>
+        <v>0.9061828063142164</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031065177325174</v>
+        <v>1.023732390820811</v>
       </c>
       <c r="J16">
-        <v>1.029739661824588</v>
+        <v>0.9820371256828948</v>
       </c>
       <c r="K16">
-        <v>1.03118617704356</v>
+        <v>0.9952525750289398</v>
       </c>
       <c r="L16">
-        <v>1.027399047303376</v>
+        <v>0.9800537773680496</v>
       </c>
       <c r="M16">
-        <v>1.03153815258673</v>
+        <v>0.9224387324046092</v>
       </c>
       <c r="N16">
-        <v>1.031202010257168</v>
+        <v>0.9834317310425972</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.023924292990033</v>
+        <v>0.955566481454143</v>
       </c>
       <c r="D17">
-        <v>1.028159719525011</v>
+        <v>0.9833567321211956</v>
       </c>
       <c r="E17">
-        <v>1.024426662685754</v>
+        <v>0.9681423387033936</v>
       </c>
       <c r="F17">
-        <v>1.029025856856624</v>
+        <v>0.9131618015240359</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031244902102438</v>
+        <v>1.025274071344062</v>
       </c>
       <c r="J17">
-        <v>1.030188110538083</v>
+        <v>0.9848461686351166</v>
       </c>
       <c r="K17">
-        <v>1.031553113024406</v>
+        <v>0.9976630098005087</v>
       </c>
       <c r="L17">
-        <v>1.027833338767291</v>
+        <v>0.9827329978381338</v>
       </c>
       <c r="M17">
-        <v>1.032416183740772</v>
+        <v>0.9288854167233748</v>
       </c>
       <c r="N17">
-        <v>1.031651095819274</v>
+        <v>0.986244763158013</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.024267937766</v>
+        <v>0.9576942813063887</v>
       </c>
       <c r="D18">
-        <v>1.028416574630625</v>
+        <v>0.9849604100931049</v>
       </c>
       <c r="E18">
-        <v>1.024723174630017</v>
+        <v>0.9699104149633639</v>
       </c>
       <c r="F18">
-        <v>1.029581109633541</v>
+        <v>0.9171218058378002</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.031349358842659</v>
+        <v>1.026153633236536</v>
       </c>
       <c r="J18">
-        <v>1.0304493627839</v>
+        <v>0.9864566500700648</v>
       </c>
       <c r="K18">
-        <v>1.031766799721117</v>
+        <v>0.9990438964692515</v>
       </c>
       <c r="L18">
-        <v>1.028086359495849</v>
+        <v>0.9842695657037396</v>
       </c>
       <c r="M18">
-        <v>1.032927269720299</v>
+        <v>0.9325428659725782</v>
       </c>
       <c r="N18">
-        <v>1.031912719073246</v>
+        <v>0.9878575316613235</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.024385063347409</v>
+        <v>0.9584139855105706</v>
       </c>
       <c r="D19">
-        <v>1.028504109335565</v>
+        <v>0.9855028063928348</v>
       </c>
       <c r="E19">
-        <v>1.024824238332186</v>
+        <v>0.9705086328971326</v>
       </c>
       <c r="F19">
-        <v>1.029770263174806</v>
+        <v>0.9184543045783886</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.031384912708434</v>
+        <v>1.026450337751964</v>
       </c>
       <c r="J19">
-        <v>1.030538389021668</v>
+        <v>0.9870012083914982</v>
       </c>
       <c r="K19">
-        <v>1.031839603810095</v>
+        <v>0.9995106463858429</v>
       </c>
       <c r="L19">
-        <v>1.028172583418856</v>
+        <v>0.9847892154719177</v>
       </c>
       <c r="M19">
-        <v>1.033101359448134</v>
+        <v>0.9337734639815763</v>
       </c>
       <c r="N19">
-        <v>1.032001871738484</v>
+        <v>0.9884028633180351</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.023861059051642</v>
+        <v>0.9551722751634558</v>
       </c>
       <c r="D20">
-        <v>1.028112450944052</v>
+        <v>0.9830596122557577</v>
       </c>
       <c r="E20">
-        <v>1.024372102862453</v>
+        <v>0.9678148668947844</v>
       </c>
       <c r="F20">
-        <v>1.028923639644532</v>
+        <v>0.9124247243815616</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031225658034319</v>
+        <v>1.025110731259231</v>
       </c>
       <c r="J20">
-        <v>1.03014002943808</v>
+        <v>0.9845477216144248</v>
       </c>
       <c r="K20">
-        <v>1.031513779585315</v>
+        <v>0.9974070252663553</v>
       </c>
       <c r="L20">
-        <v>1.027786773895192</v>
+        <v>0.9824482892117475</v>
       </c>
       <c r="M20">
-        <v>1.032322088767561</v>
+        <v>0.928204610641583</v>
       </c>
       <c r="N20">
-        <v>1.031602946438595</v>
+        <v>0.9859458923083193</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.022154060542977</v>
+        <v>0.9441966203593199</v>
       </c>
       <c r="D21">
-        <v>1.026835887185353</v>
+        <v>0.9747848317871431</v>
       </c>
       <c r="E21">
-        <v>1.022899406030102</v>
+        <v>0.9587086311259072</v>
       </c>
       <c r="F21">
-        <v>1.026158942048845</v>
+        <v>0.8914334427639671</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030703498720418</v>
+        <v>1.020513109083326</v>
       </c>
       <c r="J21">
-        <v>1.028841136670517</v>
+        <v>0.9762280497722708</v>
       </c>
       <c r="K21">
-        <v>1.030450467722503</v>
+        <v>0.9902601951261697</v>
       </c>
       <c r="L21">
-        <v>1.026528991519102</v>
+        <v>0.9745169087906125</v>
       </c>
       <c r="M21">
-        <v>1.029776093857751</v>
+        <v>0.9088115497154097</v>
       </c>
       <c r="N21">
-        <v>1.030302209094317</v>
+        <v>0.9776144055778698</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.021078122645745</v>
+        <v>0.9369155062228129</v>
       </c>
       <c r="D22">
-        <v>1.026030726379311</v>
+        <v>0.9692922221231476</v>
       </c>
       <c r="E22">
-        <v>1.021971294563415</v>
+        <v>0.9526797791150836</v>
       </c>
       <c r="F22">
-        <v>1.024411002604803</v>
+        <v>0.8769407003662256</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030371783915347</v>
+        <v>1.017407578744833</v>
       </c>
       <c r="J22">
-        <v>1.028021516171027</v>
+        <v>0.9706978854560999</v>
       </c>
       <c r="K22">
-        <v>1.029778790270916</v>
+        <v>0.9854975782605022</v>
       </c>
       <c r="L22">
-        <v>1.025735458752042</v>
+        <v>0.9692507881113369</v>
       </c>
       <c r="M22">
-        <v>1.028165473541917</v>
+        <v>0.895419522541287</v>
       </c>
       <c r="N22">
-        <v>1.029481424639706</v>
+        <v>0.972076387794051</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.021648756062354</v>
+        <v>0.9408147719643065</v>
       </c>
       <c r="D23">
-        <v>1.02645780070146</v>
+        <v>0.9722340870540968</v>
       </c>
       <c r="E23">
-        <v>1.022463512976673</v>
+        <v>0.955907219707985</v>
       </c>
       <c r="F23">
-        <v>1.02533855275921</v>
+        <v>0.8847640915634014</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030547957931946</v>
+        <v>1.019076430753851</v>
       </c>
       <c r="J23">
-        <v>1.028456296006474</v>
+        <v>0.9736605779560654</v>
       </c>
       <c r="K23">
-        <v>1.030135158937826</v>
+        <v>0.9880503121639235</v>
       </c>
       <c r="L23">
-        <v>1.026156386028954</v>
+        <v>0.9720714096808269</v>
       </c>
       <c r="M23">
-        <v>1.029020244901756</v>
+        <v>0.9026488461139278</v>
       </c>
       <c r="N23">
-        <v>1.02991682191239</v>
+        <v>0.9750432876571925</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.023889632635355</v>
+        <v>0.9553505094615095</v>
       </c>
       <c r="D24">
-        <v>1.028133810428698</v>
+        <v>0.9831939510148021</v>
       </c>
       <c r="E24">
-        <v>1.024396756817944</v>
+        <v>0.967962924723988</v>
       </c>
       <c r="F24">
-        <v>1.028969830387016</v>
+        <v>0.9127581170957624</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031234354754882</v>
+        <v>1.025184598039285</v>
       </c>
       <c r="J24">
-        <v>1.030161756207247</v>
+        <v>0.9846826629867161</v>
       </c>
       <c r="K24">
-        <v>1.031531553726547</v>
+        <v>0.997522770727633</v>
       </c>
       <c r="L24">
-        <v>1.027807815465398</v>
+        <v>0.9825770172384337</v>
       </c>
       <c r="M24">
-        <v>1.032364609492501</v>
+        <v>0.9285125526066823</v>
       </c>
       <c r="N24">
-        <v>1.031624704062266</v>
+        <v>0.9860810253128374</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.026478804851145</v>
+        <v>0.9708362930761949</v>
       </c>
       <c r="D25">
-        <v>1.030067997998146</v>
+        <v>0.994862609476526</v>
       </c>
       <c r="E25">
-        <v>1.026631075234737</v>
+        <v>0.9808488091320573</v>
       </c>
       <c r="F25">
-        <v>1.033143453252651</v>
+        <v>0.940948418606156</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03201624386582</v>
+        <v>1.031508686153433</v>
       </c>
       <c r="J25">
-        <v>1.032128317462427</v>
+        <v>0.9963866339505648</v>
       </c>
       <c r="K25">
-        <v>1.033138650971642</v>
+        <v>1.007541203784031</v>
       </c>
       <c r="L25">
-        <v>1.029712701420169</v>
+        <v>0.9937518806324673</v>
       </c>
       <c r="M25">
-        <v>1.036204354778863</v>
+        <v>0.954538263445015</v>
       </c>
       <c r="N25">
-        <v>1.033594058059996</v>
+        <v>0.9978016172579188</v>
       </c>
     </row>
   </sheetData>
